--- a/xlsx/美国的肥胖问题_intext.xlsx
+++ b/xlsx/美国的肥胖问题_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>美国的肥胖问题</t>
   </si>
@@ -29,7 +29,7 @@
     <t>患病率</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国的肥胖问题</t>
+    <t>政策_政策_美国_美国的肥胖问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E5%9C%88</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%96%BE%E7%97%85%E6%8E%A7%E5%88%B6%E8%88%87%E9%A0%90%E9%98%B2%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國疾病控制與預防中心</t>
+    <t>美国疾病控制与预防中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>勞動力</t>
+    <t>劳动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E7%85%99</t>
   </si>
   <si>
-    <t>吸煙</t>
+    <t>吸烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%97%E9%85%92</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98%E9%AB%94%E9%87%8D%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>身高體重指數</t>
+    <t>身高体重指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8F%E8%82%A5%E6%89%8B%E6%9C%AF</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%96%BE%E7%97%85%E9%A0%90%E9%98%B2%E5%8F%8A%E6%8E%A7%E5%88%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國疾病預防及控制中心</t>
+    <t>美国疾病预防及控制中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%A4%E5%B7%AE</t>
   </si>
   <si>
-    <t>誤差</t>
+    <t>误差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
@@ -161,25 +161,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>特拉華州</t>
+    <t>特拉华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
+    <t>伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞州</t>
+    <t>马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -281,25 +281,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>新罕布什爾州</t>
+    <t>新罕布什尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -335,19 +335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄勒岡州</t>
+    <t>俄勒冈州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1%E5%8C%85</t>
   </si>
   <si>
-    <t>漢堡包</t>
+    <t>汉堡包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E8%96%AF%E6%A2%9D</t>
   </si>
   <si>
-    <t>炸薯條</t>
+    <t>炸薯条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9C%E7%94%9C%E5%9C%88</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E6%80%A7%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>軟性飲料</t>
+    <t>软性饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%B1%81</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%A1%80%E7%AE%A1%E7%96%BE%E7%97%85</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%9B%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國衛生及公共服務部</t>
+    <t>美国卫生及公共服务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%A8%A9</t>
@@ -497,31 +497,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%94%A2</t>
   </si>
   <si>
-    <t>死產</t>
+    <t>死产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E8%B2%A9%E8%B3%A3%E6%A9%9F</t>
   </si>
   <si>
-    <t>自動販賣機</t>
+    <t>自动贩卖机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%89%93%E6%B0%B4</t>
   </si>
   <si>
-    <t>蘇打水</t>
+    <t>苏打水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E8%BF%AA%C2%B7%E7%91%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>約迪·瑞爾</t>
+    <t>约迪·瑞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%99%BE%E5%88%A9</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>可口可樂公司</t>
+    <t>可口可乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E4%BA%8B%E5%85%AC%E5%8F%B8</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E7%88%BE%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>米歇爾·奧巴馬</t>
+    <t>米歇尔·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Forbes</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -713,13 +713,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -863,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -881,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1001,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1049,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1067,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1085,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1151,13 +1148,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1193,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1295,15 +1292,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1313,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1367,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1421,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1457,19 +1451,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1481,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -5193,7 +5187,7 @@
         <v>231</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5219,10 +5213,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5248,10 +5242,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5277,10 +5271,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5306,10 +5300,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5335,10 +5329,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5364,10 +5358,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5393,10 +5387,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5422,10 +5416,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5451,10 +5445,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5480,10 +5474,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5509,10 +5503,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5538,10 +5532,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5567,10 +5561,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5596,10 +5590,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5625,10 +5619,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5654,10 +5648,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5683,10 +5677,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5712,10 +5706,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5741,10 +5735,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5770,10 +5764,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5799,10 +5793,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5828,10 +5822,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5857,10 +5851,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5886,10 +5880,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5915,10 +5909,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5944,10 +5938,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5973,10 +5967,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6002,10 +5996,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6031,10 +6025,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6060,10 +6054,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6089,10 +6083,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6118,10 +6112,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6147,10 +6141,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6176,10 +6170,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6205,10 +6199,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6234,10 +6228,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6263,10 +6257,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6292,10 +6286,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6321,10 +6315,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6350,10 +6344,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6379,10 +6373,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6408,10 +6402,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6437,10 +6431,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6466,10 +6460,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6495,10 +6489,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6524,10 +6518,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6553,10 +6547,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6582,10 +6576,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6611,10 +6605,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6640,10 +6634,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6669,10 +6663,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6698,10 +6692,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6727,10 +6721,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6756,10 +6750,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6785,10 +6779,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6814,10 +6808,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6843,10 +6837,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6872,10 +6866,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6901,10 +6895,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6930,10 +6924,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6959,10 +6953,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6988,10 +6982,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7017,10 +7011,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7046,10 +7040,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7075,10 +7069,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7104,10 +7098,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7133,10 +7127,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7162,10 +7156,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7191,10 +7185,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7220,10 +7214,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7249,10 +7243,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7278,10 +7272,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7307,10 +7301,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7336,10 +7330,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7365,10 +7359,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7394,10 +7388,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7423,10 +7417,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7452,10 +7446,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7481,10 +7475,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7510,10 +7504,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7539,10 +7533,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7568,10 +7562,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7597,10 +7591,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -7626,10 +7620,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7655,10 +7649,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -7684,10 +7678,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7713,10 +7707,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7742,10 +7736,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7771,10 +7765,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7800,10 +7794,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7829,10 +7823,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7858,10 +7852,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7887,10 +7881,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -7916,10 +7910,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -7945,10 +7939,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7974,10 +7968,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8003,10 +7997,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8032,10 +8026,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8061,10 +8055,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8090,10 +8084,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8119,10 +8113,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8148,10 +8142,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8177,10 +8171,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8206,10 +8200,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8235,10 +8229,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8264,10 +8258,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8293,10 +8287,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8322,10 +8316,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8351,10 +8345,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8380,10 +8374,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8409,10 +8403,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -8438,10 +8432,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8467,10 +8461,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8496,10 +8490,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8525,10 +8519,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8554,10 +8548,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8583,10 +8577,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8612,10 +8606,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8641,10 +8635,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>11</v>
@@ -8670,10 +8664,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8699,10 +8693,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8728,10 +8722,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8757,10 +8751,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8786,10 +8780,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8815,10 +8809,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8844,10 +8838,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8873,10 +8867,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -8902,10 +8896,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8931,10 +8925,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
